--- a/back/report (7).xlsx
+++ b/back/report (7).xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcMode="auto" fullCalcOnLoad="1" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>№СМР</t>
   </si>
   <si>
-    <t>№Дог Зак</t>
+    <t xml:space="preserve">№Дог Зак</t>
   </si>
   <si>
     <t>РЭС</t>
   </si>
   <si>
-    <t>Статус договора</t>
-  </si>
-  <si>
-    <t>Основной договор</t>
+    <t xml:space="preserve">Статус договора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основной договор</t>
   </si>
   <si>
     <t>Заказчик</t>
@@ -38,25 +39,25 @@
     <t>Титул</t>
   </si>
   <si>
-    <t>Заявитель ФИО</t>
+    <t xml:space="preserve">Заявитель ФИО</t>
   </si>
   <si>
     <t>Адрес</t>
   </si>
   <si>
-    <t>КН участника</t>
-  </si>
-  <si>
-    <t>Мощность по ТУ</t>
-  </si>
-  <si>
-    <t>ТУ получены</t>
-  </si>
-  <si>
-    <t>Поступил в работу</t>
-  </si>
-  <si>
-    <t>Менеджер проекта</t>
+    <t xml:space="preserve">КН участника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность по ТУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУ получены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поступил в работу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджер проекта</t>
   </si>
   <si>
     <t>Классификатор</t>
@@ -65,166 +66,166 @@
     <t>Обследователь</t>
   </si>
   <si>
-    <t>ГИП исполнитель</t>
-  </si>
-  <si>
-    <t>Статус ПИР</t>
-  </si>
-  <si>
-    <t>Статус ПИР дата</t>
-  </si>
-  <si>
-    <t>Выезд на ППО</t>
-  </si>
-  <si>
-    <t>ГЕО получено</t>
-  </si>
-  <si>
-    <t>Статус согл ГЕО</t>
-  </si>
-  <si>
-    <t>ГЕО согласовано всеми</t>
-  </si>
-  <si>
-    <t>Статус согл ПТ</t>
-  </si>
-  <si>
-    <t>ПТ согласован Землевлад.</t>
-  </si>
-  <si>
-    <t>ПТ и обуд согл с РЭС</t>
-  </si>
-  <si>
-    <t>ГНБ (ПИР)</t>
-  </si>
-  <si>
-    <t>ГНБ (ПИР) дата</t>
-  </si>
-  <si>
-    <t>Статус РЗА</t>
-  </si>
-  <si>
-    <t>Статус РЗА дата</t>
-  </si>
-  <si>
-    <t>Статус ТМ</t>
-  </si>
-  <si>
-    <t>Статус ТМ дата</t>
-  </si>
-  <si>
-    <t>ПИР Предв. согл. до АПСД</t>
-  </si>
-  <si>
-    <t>ПИР согласован АПСД</t>
-  </si>
-  <si>
-    <t>Отв. за СМР</t>
-  </si>
-  <si>
-    <t>Статус СМР</t>
-  </si>
-  <si>
-    <t>Дата статуса СМР</t>
-  </si>
-  <si>
-    <t>Статус Снабж матер</t>
-  </si>
-  <si>
-    <t>Дата статуса Снабж матер</t>
-  </si>
-  <si>
-    <t>Статус Снабж оборуд</t>
-  </si>
-  <si>
-    <t>Дата статуса Снабж оборуд</t>
-  </si>
-  <si>
-    <t>Статус Отключение</t>
-  </si>
-  <si>
-    <t>Дата статус Отключение</t>
-  </si>
-  <si>
-    <t>Зем ордер статус</t>
-  </si>
-  <si>
-    <t>Дата статуса Зем ордер</t>
-  </si>
-  <si>
-    <t>СМР старт</t>
-  </si>
-  <si>
-    <t>СМР финиш</t>
-  </si>
-  <si>
-    <t>Статус СК ЭС</t>
-  </si>
-  <si>
-    <t>Дата статуса СК ЭС</t>
-  </si>
-  <si>
-    <t>Отв ИД</t>
-  </si>
-  <si>
-    <t>Статус ИД</t>
-  </si>
-  <si>
-    <t>Дата статуса ИД</t>
-  </si>
-  <si>
-    <t>Паспорта получены ПТО</t>
-  </si>
-  <si>
-    <t>Требуется исп схема</t>
-  </si>
-  <si>
-    <t>ИД согласовано РЭС</t>
-  </si>
-  <si>
-    <t>ИД сдано в архив</t>
-  </si>
-  <si>
-    <t>Статус ВКЛ</t>
-  </si>
-  <si>
-    <t>Дата статуса ВКЛ</t>
-  </si>
-  <si>
-    <t>Объект включен</t>
-  </si>
-  <si>
-    <t>Отв Смета</t>
-  </si>
-  <si>
-    <t>Статус ПСД</t>
-  </si>
-  <si>
-    <t>Дата статуса ПСД</t>
-  </si>
-  <si>
-    <t>Смета согласована заказчиком</t>
-  </si>
-  <si>
-    <t>ПСД утверждено</t>
+    <t xml:space="preserve">ГИП исполнитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ПИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ПИР дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выезд на ППО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕО получено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус согл ГЕО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕО согласовано всеми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус согл ПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПТ согласован Землевлад.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПТ и обуд согл с РЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГНБ (ПИР)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГНБ (ПИР) дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус РЗА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус РЗА дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ТМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ТМ дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИР Предв. согл. до АПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИР согласован АПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отв. за СМР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус СМР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса СМР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Снабж матер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса Снабж матер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Снабж оборуд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса Снабж оборуд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Отключение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статус Отключение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зем ордер статус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса Зем ордер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМР старт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМР финиш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус СК ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса СК ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отв ИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса ИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паспорта получены ПТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требуется исп схема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИД согласовано РЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИД сдано в архив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ВКЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса ВКЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объект включен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отв Смета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса ПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смета согласована заказчиком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПСД утверждено</t>
   </si>
   <si>
     <t>Расчет</t>
   </si>
   <si>
-    <t>Начало договора</t>
-  </si>
-  <si>
-    <t>Конец договора</t>
-  </si>
-  <si>
-    <t>Жалобы Организация</t>
-  </si>
-  <si>
-    <t>Жалоба рассмотрена</t>
-  </si>
-  <si>
-    <t>Номер претензии</t>
+    <t xml:space="preserve">Начало договора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конец договора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жалобы Организация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жалоба рассмотрена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер претензии</t>
   </si>
   <si>
     <t>С110570-340239</t>
@@ -239,37 +240,37 @@
     <t>Север</t>
   </si>
   <si>
-    <t>МОЭСК СЭС (рамочный)</t>
-  </si>
-  <si>
-    <t>Строительство КВЛ-0,4 кВ от ТП-10/0,4кВ № 514, ПС №71 "Поварово", ВРЩ-0,4 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, г.п. Поварово, дп. Поварово, ул. Дзержинского, уч. 68-а</t>
-  </si>
-  <si>
-    <t>Гершуни Рон</t>
-  </si>
-  <si>
-    <t>г.п. Поварово, дп. Поварово, ул. Дзержинского, участок 68-а</t>
+    <t xml:space="preserve">МОЭСК СЭС (рамочный)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительство КВЛ-0,4 кВ от ТП-10/0,4кВ № 514, ПС №71 "Поварово", ВРЩ-0,4 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, г.п. Поварово, дп. Поварово, ул. Дзержинского, уч. 68-а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гершуни Рон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г.п. Поварово, дп. Поварово, ул. Дзержинского, участок 68-а</t>
   </si>
   <si>
     <t>50:09:0090202:559</t>
   </si>
   <si>
-    <t>15 третья 0,4</t>
+    <t xml:space="preserve">15 третья 0,4</t>
   </si>
   <si>
     <t>16.05.2025</t>
   </si>
   <si>
-    <t>Синюка Ярослава Николаевна</t>
-  </si>
-  <si>
-    <t>ГЕО на согласовании</t>
-  </si>
-  <si>
-    <t>Загорняк Никита Михайлович</t>
-  </si>
-  <si>
-    <t>050 - *Согласования ГЕО</t>
+    <t xml:space="preserve">Синюка Ярослава Николаевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕО на согласовании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загорняк Никита Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050 - *Согласования ГЕО</t>
   </si>
   <si>
     <t>02.06.2025</t>
@@ -290,25 +291,24 @@
     <t>31.07.2025</t>
   </si>
   <si>
-    <t>Претензия от Россети МР</t>
-  </si>
-  <si>
-    <t>20.08.2025 СЭС/06/1153</t>
+    <t xml:space="preserve">Претензия от Россети МР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.08.2025 СЭС/06/1153</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -317,32 +317,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -388,13 +394,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -417,19 +423,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -452,7 +457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,20 +631,229 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" topLeftCell="AV1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +1065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2">
       <c r="A2">
         <v>5223</v>
       </c>
@@ -898,7 +1111,6 @@
       <c r="O2" t="s">
         <v>82</v>
       </c>
-      <c r="P2"/>
       <c r="Q2" t="s">
         <v>83</v>
       </c>
@@ -908,84 +1120,54 @@
       <c r="S2" t="s">
         <v>85</v>
       </c>
-      <c r="T2"/>
       <c r="U2" t="s">
         <v>85</v>
       </c>
       <c r="V2" t="s">
         <v>86</v>
       </c>
-      <c r="W2"/>
       <c r="X2" t="s">
         <v>87</v>
       </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
       <c r="AA2" t="s">
         <v>88</v>
       </c>
-      <c r="AB2"/>
       <c r="AC2" t="s">
         <v>88</v>
       </c>
-      <c r="AD2"/>
       <c r="AE2" t="s">
         <v>88</v>
       </c>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
       <c r="AJ2" t="s">
         <v>88</v>
       </c>
-      <c r="AK2"/>
       <c r="AL2" t="s">
         <v>88</v>
       </c>
-      <c r="AM2"/>
       <c r="AN2" t="s">
         <v>88</v>
       </c>
-      <c r="AO2"/>
       <c r="AP2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ2"/>
       <c r="AR2" t="s">
         <v>88</v>
       </c>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
       <c r="AV2" t="s">
         <v>88</v>
       </c>
-      <c r="AW2"/>
-      <c r="AX2"/>
       <c r="AY2" t="s">
         <v>88</v>
       </c>
-      <c r="AZ2"/>
-      <c r="BA2"/>
       <c r="BB2" t="s">
         <v>89</v>
       </c>
-      <c r="BC2"/>
-      <c r="BD2"/>
       <c r="BE2" t="s">
         <v>88</v>
       </c>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
       <c r="BI2" t="s">
         <v>88</v>
       </c>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
       <c r="BN2" t="s">
         <v>85</v>
       </c>
@@ -1003,17 +1185,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection autoFilter="0" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" pivotTables="0" selectLockedCells="0" selectUnlockedCells="0" sheet="0" sort="0"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>